--- a/M0.2D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.2D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,6 +3045,806 @@
         <v>0.8008999999999999</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B105" t="n">
+        <v>774999</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[1596]</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1596</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.7968</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B106" t="n">
+        <v>349999</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[1644]</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1644</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2044</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.8043</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1074999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[1581]</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1581</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1989</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.7949000000000001</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B108" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[1583]</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1583</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1993</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.7943</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B109" t="n">
+        <v>574999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[1586]</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1586</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.793</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B110" t="n">
+        <v>374999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[1701]</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1701</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2083</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8166</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B111" t="n">
+        <v>599999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[1605]</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1605</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1971</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.8143</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B112" t="n">
+        <v>449999</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[1638]</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2028</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8077</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B113" t="n">
+        <v>499999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[1545]</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1545</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1939</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.7968</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B114" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[1587]</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1587</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1962</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8089</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B115" t="n">
+        <v>349999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[1612]</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1612</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.8008</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2061</v>
+      </c>
+      <c r="B116" t="n">
+        <v>824999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[1637]</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1637</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8177</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2064</v>
+      </c>
+      <c r="B117" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[1562]</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1956</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.7986</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2068</v>
+      </c>
+      <c r="B118" t="n">
+        <v>424999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[1532]</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1532</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1941</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.7893</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2073</v>
+      </c>
+      <c r="B119" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[1552]</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1552</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2004</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.7745</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2077</v>
+      </c>
+      <c r="B120" t="n">
+        <v>524999</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[1608]</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1608</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.7968</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2081</v>
+      </c>
+      <c r="B121" t="n">
+        <v>374999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[1643]</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1643</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2037</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.8066</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B122" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[1629]</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1629</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.8141</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2089</v>
+      </c>
+      <c r="B123" t="n">
+        <v>799999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[1595]</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1985</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.8035</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2093</v>
+      </c>
+      <c r="B124" t="n">
+        <v>399999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[1572]</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1572</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1959</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.8025</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2097</v>
+      </c>
+      <c r="B125" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[1561]</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1966</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.794</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2101</v>
+      </c>
+      <c r="B126" t="n">
+        <v>549999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[1625]</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1625</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.8028999999999999</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2105</v>
+      </c>
+      <c r="B127" t="n">
+        <v>524999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[1621]</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1621</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.8028999999999999</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2109</v>
+      </c>
+      <c r="B128" t="n">
+        <v>674999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[1667]</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.8306</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2112</v>
+      </c>
+      <c r="B129" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[1621]</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1621</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8129</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B130" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[1626]</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1626</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.8106</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2120</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1149999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[1614]</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1614</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1988</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.8119</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B132" t="n">
+        <v>524999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[1618]</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1618</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1998</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.8098</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B133" t="n">
+        <v>724999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[1613]</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1613</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.8069</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1024999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[1682]</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1682</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2070</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.8126</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2136</v>
+      </c>
+      <c r="B135" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[1602]</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1602</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.805</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2140</v>
+      </c>
+      <c r="B136" t="n">
+        <v>474999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[1630]</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.8162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.2D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.2D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3845,6 +3845,331 @@
         <v>0.8162</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2144</v>
+      </c>
+      <c r="B137" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[1590]</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1590</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1964</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.8096</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2148</v>
+      </c>
+      <c r="B138" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[1655]</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1655</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2015</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.8213</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2152</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1049999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[1528]</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1528</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1968</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.7764</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2156</v>
+      </c>
+      <c r="B140" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[1615]</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.8157</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2160</v>
+      </c>
+      <c r="B141" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[1637]</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1637</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2031</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2164</v>
+      </c>
+      <c r="B142" t="n">
+        <v>449999</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[1574]</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1574</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.7858000000000001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2168</v>
+      </c>
+      <c r="B143" t="n">
+        <v>474999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[1648]</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2043</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8067</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2172</v>
+      </c>
+      <c r="B144" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[1565]</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1565</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1976</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.792</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1124999</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[1591]</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1591</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.7971</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2179</v>
+      </c>
+      <c r="B146" t="n">
+        <v>774999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[1631]</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1631</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.8147</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2183</v>
+      </c>
+      <c r="B147" t="n">
+        <v>574999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[1563]</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1563</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1929</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.8103</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2187</v>
+      </c>
+      <c r="B148" t="n">
+        <v>449999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[1611]</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1611</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.8058999999999999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2191</v>
+      </c>
+      <c r="B149" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[1662]</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1662</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2026</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.8203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.2D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.2D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4170,6 +4170,356 @@
         <v>0.8203</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2195</v>
+      </c>
+      <c r="B150" t="n">
+        <v>624999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[1612]</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1612</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1966</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.8199</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2199</v>
+      </c>
+      <c r="B151" t="n">
+        <v>799999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[1562]</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1939</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.8056</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B152" t="n">
+        <v>999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[1595]</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.7999000000000001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2207</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1074999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[1652]</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1652</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.819</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2211</v>
+      </c>
+      <c r="B154" t="n">
+        <v>424999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[1641]</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1641</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.8168</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B155" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[1582]</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1582</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1963</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.8058999999999999</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2219</v>
+      </c>
+      <c r="B156" t="n">
+        <v>449999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[1618]</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1618</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.8082</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2223</v>
+      </c>
+      <c r="B157" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[1652]</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1652</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2075</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.7961</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2227</v>
+      </c>
+      <c r="B158" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[1684]</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1684</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2125</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.7925</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2231</v>
+      </c>
+      <c r="B159" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[1505]</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>1505</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1906</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.7896</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B160" t="n">
+        <v>374999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[1545]</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1545</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1889</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.8179</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2239</v>
+      </c>
+      <c r="B161" t="n">
+        <v>874999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[1576]</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1968</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.8008</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2243</v>
+      </c>
+      <c r="B162" t="n">
+        <v>474999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[1595]</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.7967</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2247</v>
+      </c>
+      <c r="B163" t="n">
+        <v>899999</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[1621]</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>1621</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.8101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.2D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.2D0.0001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4520,6 +4520,956 @@
         <v>0.8101</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2251</v>
+      </c>
+      <c r="B164" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[1573]</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1573</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1946</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.8083</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2255</v>
+      </c>
+      <c r="B165" t="n">
+        <v>749999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[1622]</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>1622</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2014</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.8054</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2259</v>
+      </c>
+      <c r="B166" t="n">
+        <v>999999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[1601]</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1601</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1998</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.8013</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2263</v>
+      </c>
+      <c r="B167" t="n">
+        <v>424999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[1600]</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.7992</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B168" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[1643]</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1643</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2040</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.8054</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B169" t="n">
+        <v>924999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[1559]</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1962</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.7946</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2275</v>
+      </c>
+      <c r="B170" t="n">
+        <v>399999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[1541]</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>1541</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1908</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.8077</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2279</v>
+      </c>
+      <c r="B171" t="n">
+        <v>499999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[1563]</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1563</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1945</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.8036</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2283</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1049999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[1626]</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>1626</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2036</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.7986</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2287</v>
+      </c>
+      <c r="B173" t="n">
+        <v>549999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[1583]</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1583</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.7931</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2291</v>
+      </c>
+      <c r="B174" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[1612]</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>1612</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.8076</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2295</v>
+      </c>
+      <c r="B175" t="n">
+        <v>799999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[1617]</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1617</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.8033</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2299</v>
+      </c>
+      <c r="B176" t="n">
+        <v>324999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[1667]</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2070</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.8053</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B177" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[1585]</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1585</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.7937</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2307</v>
+      </c>
+      <c r="B178" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[1645]</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2057</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.7997</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2311</v>
+      </c>
+      <c r="B179" t="n">
+        <v>374999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[1600]</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.7925</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2315</v>
+      </c>
+      <c r="B180" t="n">
+        <v>574999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[1603]</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1603</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1987</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.8067</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2319</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1049999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[1597]</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>1597</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.8148</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B182" t="n">
+        <v>449999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[1601]</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1601</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.7906</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2327</v>
+      </c>
+      <c r="B183" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[1547]</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1547</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1929</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2331</v>
+      </c>
+      <c r="B184" t="n">
+        <v>474999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[1590]</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1590</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.803</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2335</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1199999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[1573]</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1573</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1978</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.7952</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2339</v>
+      </c>
+      <c r="B186" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[1632]</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>1632</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2343</v>
+      </c>
+      <c r="B187" t="n">
+        <v>599999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[1560]</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1941</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.8037</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B188" t="n">
+        <v>774999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[1639]</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.8183</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B189" t="n">
+        <v>324999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[1620]</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.8104</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2355</v>
+      </c>
+      <c r="B190" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[1583]</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1583</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.7939000000000001</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2359</v>
+      </c>
+      <c r="B191" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[1624]</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1624</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2049</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.7926</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2364</v>
+      </c>
+      <c r="B192" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[1542]</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1542</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1966</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.7843</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2368</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1724999</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[1604]</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1604</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2372</v>
+      </c>
+      <c r="B194" t="n">
+        <v>424999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[1584]</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1584</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1957</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.8094</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2376</v>
+      </c>
+      <c r="B195" t="n">
+        <v>949999</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[1562]</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1940</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.8052</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2380</v>
+      </c>
+      <c r="B196" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[1565]</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1565</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.7904</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2384</v>
+      </c>
+      <c r="B197" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[1553]</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1553</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.7956</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B198" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>[1590]</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1590</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.8014</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2392</v>
+      </c>
+      <c r="B199" t="n">
+        <v>324999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[1616]</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1616</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1989</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2395</v>
+      </c>
+      <c r="B200" t="n">
+        <v>999999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[1608]</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1608</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1985</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.8101</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2397</v>
+      </c>
+      <c r="B201" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>[1542]</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>1542</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1945</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.7927999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
